--- a/pythonProject/topic_cosine_lda_2008_2011.xlsx
+++ b/pythonProject/topic_cosine_lda_2008_2011.xlsx
@@ -443,147 +443,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[0.003369335813776271, 0.003356296329190378, 0.009310924986053036, 0.0033939005626250247, 0.009310924986054651, 0.0034199321192211834, 0.0033549409479762017, 0.00013962997891262734, 0.003308136414129847, 0.003332027518743669, 0.0033453593214076926, 9.459216829952967e-05, 0.003362450156527784, 0.009310924986053359, 0.0033849218245104134, 0.00931092498606435, 0.003386100027086179, 0.009310924986061597, 0.003275976309792307]</t>
+          <t>[0.20297897076922827, 0.023622481683359463, 0.03500486243701137, 0.21673321118647637, 0.0038736627101803736, 0.03929796837367814, 0.03728087702117022, 0.06100213354340606, 0.012706782110434724, 0.02865055558292246, 0.036526819374565055, 0.05417402886690195, 0.021138417147922882, 0.04606296393098815, 0.029560967347269134, 0.021058787796053812, 0.012858259196159728, 0.024512504571626684, 0.6468078741540743]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[0.06049811737547342, 0.0031099882080645267, 0.07707474143588793, 0.19260059163694565, 0.07707474143590294, 0.003694033964668136, 0.0030967660991287893, 0.0011557211743283234, 0.00266614935798422, 0.002888577147220139, 0.00301053266747165, 0.0007829646888766374, 0.0031669786962782187, 0.07707474143573302, 0.00337471054679376, 0.07707474143607698, 0.1925836178906103, 0.07707474143586253, 0.002374849583781064]</t>
+          <t>[0.051283580549556486, 0.1340231514683927, 0.023375194872973085, 0.006223129802225038, 0.0590028756980672, 0.07472903290511665, 0.015287762429346619, 0.1474773766392259, 0.006644733950880781, 0.014090083268719446, 0.03378576830644156, 0.13964683804791508, 0.031155917392687343, 0.0162499319118357, 0.014610091989896197, 0.012482966251209511, 0.6559269707904489, 0.027826139401523085, 0.004638211588205134]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[0.006417321536099186, 0.0059756687200309576, 0.2837481697250174, 0.007246477072528417, 0.2837481697248347, 0.968763659682904, 0.9688671484488204, 0.00425448684452116, 0.004331437557680247, 0.005156490674531967, 0.005607060054865389, 0.0028823753678703314, 0.006186187772155558, 0.2837481697254424, 0.006956663917707283, 0.283748169725449, 0.0069810263184275695, 0.28374816972397515, 0.0032543300454021136]</t>
+          <t>[0.03539432452682286, 0.0645355692613813, 0.04502203905465508, 0.14928021610267986, 0.011194726408213314, 0.0401948181821142, 0.12885496032883997, 0.0020923678323903753, 0.013625955521828992, 0.038734392666568807, 0.21537181801875374, 0.07299128182266237, 0.026332285251209682, 0.03247345004171543, 0.36656849795839763, 0.4549228825685756, 0.004906230471483059, 0.04385610046877151, 0.036418319378856104]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0.0017426644279847218, 0.0017359053677075671, 0.004816031424735755, 0.0017555802829022239, 0.004816031424736589, 0.0017690305594944922, 0.0017354143968137637, 7.222293864768408e-05, 0.001710986580369443, 0.0017234723345110707, 0.0017305671169941404, 4.8927346590011385e-05, 0.0017392468807620476, 0.004816031424735921, 0.0017508754700517996, 0.0048160314247416075, 0.0017515455225501474, 0.004816031424740184, 0.0016943867023760046]</t>
+          <t>[0.021435737246300414, 0.03635372101128297, 0.007664000197100099, 0.00717002435131008, 0.01275410151402749, 0.04451048395146681, 0.03928412973676369, 0.007348442912421101, 0.0029772037777595016, 0.008321023800809188, 0.01473227373499718, 0.39945793647336986, 0.008928205759181252, 0.0018927547880863147, 0.001741269361718003, 0.0016898240578136318, 0.30350042494485, 0.5101921799596935, 0.0353257198729716]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[0.16121889666405914, 0.16058931036996116, 0.44547869187340877, 0.16239155047463802, 0.44547869187348593, 0.16362679559243695, 0.16051731313256434, 0.006680558630666597, 0.15828057433779258, 0.1594030579821103, 0.1600620077592902, 0.004525736737998702, 0.16086794703380616, 0.44547869187342426, 0.16193483664202174, 0.44547869187395, 0.16201833922737396, 0.4454786918738184, 0.15673609550845874]</t>
+          <t>[0.007533969971309539, 0.12176608170851211, 0.6628175786355728, 0.006198700540337039, 0.04271915092844049, 0.04794206392235018, 0.15325309458133962, 0.04266225699365801, 0.08660929390227398, 0.04065958363354911, 0.04025729095740325, 0.03564058392774475, 0.027879972660194367, 0.018468659170215073, 0.012548802867267847, 0.042341364457539325, 0.07085728751489855, 0.0470081191016565, 0.01242939804469185]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[0.005006318210701285, 0.6306985658126518, 0.18670473025740847, 0.005551434417316926, 0.18670473025562498, 0.0061378679145157366, 0.004683951110204129, 0.0028002759794356815, 0.003634920854285031, 0.004177364425655435, 0.004473590773505841, 0.0018970697969425655, 0.004853934181471489, 0.18670473025559786, 0.005360545284278293, 0.18670473025646267, 0.005376896217612302, 0.18670473025677042, 0.0029269919779384085]</t>
+          <t>[0.014176111000491928, 0.12725339941257133, 0.010462451084340333, 0.010069445806283925, 0.02093854240364761, 0.02472606392733088, 0.010833628764186379, 0.001668265525105703, 0.004178591487404723, 0.953300687514589, 0.015612513473214554, 0.041739293881132906, 0.01705661321888372, 0.015662056573790228, 0.018229340233366493, 0.016674589837873493, 0.001145530339359006, 0.11842882461094723, 0.01177313736585412]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[0.005989212589014811, 0.005569527393775603, 0.2694367668803768, 0.006776549291732626, 0.2694367668806608, 0.007624527451094342, 0.005523782666522268, 0.004040562232954266, 0.004008211305133507, 0.0047918446552153195, 0.00521994110656405, 0.002737114737015524, 0.005769549219574469, 0.26943676688132956, 0.006501305652773444, 0.2694367668807074, 0.00652435596604514, 0.269436766879185, 0.9210950181141588]</t>
+          <t>[0.006667161368089311, 0.025974198700718026, 0.03584589223397294, 0.005598139508328307, 0.07135631841186132, 0.03915756853734756, 0.017496624901880455, 0.0022641778739926634, 0.004526411766307633, 0.006835157174503299, 0.6835487669159969, 0.015239240554890789, 0.009018509253730633, 0.011585602223940474, 0.039624520766190226, 0.0362534410901279, 0.03147833831766222, 0.006082957982437903, 0.02764214404090574]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[0.0029480810677429024, 0.0029367691301040643, 0.008147223586708083, 0.0029697310663305033, 0.008147223586709492, 0.0029925645661353596, 0.002935696298382022, 0.00012217869423185565, 0.0028943038017953857, 0.0029154155458664586, 0.002927367771215238, 8.276981563958904e-05, 0.002942478487364312, 0.008147223586708364, 0.002961890668668408, 0.008147223586717982, 0.0029629054625178878, 0.008147223586715572, 0.0028667836915699137]</t>
+          <t>[0.00990650480573402, 0.03950991383874574, 0.008374353735694765, 0.012908568400995812, 0.0332368207033335, 0.02877185275169359, 0.024102591599708494, 0.02106393513785221, 0.00674075490089308, 0.006213509209678389, 0.014637923669894741, 0.03602846948402969, 0.018662846820948844, 0.010713431897008607, 0.6438384094765597, 0.016949184229192376, 0.0579326778911543, 0.09140498454092874, 0.04040340837747348]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[0.0019676817002234124, 0.0019598984260099633, 0.005437071830353721, 0.0019817077080076457, 0.005437071830354663, 0.001997082178944431, 0.0019591309520445286, 8.153628439370085e-05, 0.0019315927366994378, 0.0019457475292536173, 0.001953579883136375, 5.523666179993885e-05, 0.001963434549352261, 0.005437071830353909, 0.001976593458173015, 0.005437071830360328, 0.0019771525792189907, 0.005437071830358719, 0.0019130787101255978]</t>
+          <t>[0.011506389426050388, 0.0013968033354541094, 0.010251038082421582, 0.10446668655870271, 0.006319700452697965, 0.006151124403084691, 0.0037743216305111058, 0.007607663466123764, 0.009860730210410886, 0.001143092394480193, 0.0034140232135781603, 0.02112407378437285, 0.011533926308834286, 0.9244525944635628, 0.0023370602304759896, 0.014845705797848045, 0.042801262611555924, 0.12431409929987478, 0.10794088111532046]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[0.0032158018464833646, 0.00312001024365611, 0.06197825231985796, 0.19530828317191504, 0.06197825231976907, 0.003588188422584448, 0.0031094213737503564, 0.0009292879357514514, 0.0027640145586645365, 0.0029426030787267493, 0.00304010144215587, 0.0006295822384454301, 0.0031656981732730636, 0.06197825231970146, 0.0033320203037828775, 0.06197825232001192, 0.19530633020733426, 0.06197825231981904, 0.0025305375133159555]</t>
+          <t>[0.024905990467486875, 0.013584763499179312, 0.048024230581527445, 0.6569527955508907, 0.004456501302801254, 0.02629948772041065, 0.029819514613654362, 0.005790584502479568, 0.0017540613652317284, 0.014275563964377062, 0.01735422124785235, 0.0880773478000456, 0.01116139505377815, 0.1282950098049127, 0.007222987938161005, 0.0036996975134229505, 0.021632869994360603, 0.03226325133960367, 0.14684803914229516]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[0.0025828475187034813, 0.0025723469031386672, 0.007136284610722915, 0.002601037179103906, 0.007136284610724152, 0.0026210879694305083, 0.0025712757800579345, 0.00010701829039571382, 0.002535532428766862, 0.0025537553232861383, 0.0025639967101316616, 7.249941732753566e-05, 0.0025770516734477857, 0.007136284610723161, 0.0025943615664197504, 0.007136284610731587, 0.0025950584652689713, 0.007136284610729478, 0.002510839413474077]</t>
+          <t>[0.010045743303155271, 0.547853652164532, 0.01423043589499922, 0.015555894690911036, 0.007572925349713047, 0.012123703751049927, 0.012562485716109392, 0.03286631509568732, 0.01561680430799122, 0.003551565040738314, 0.010601937444825694, 0.0503642019391057, 0.006378340749108155, 0.12237009570094189, 0.013652186850623613, 0.026580118368512644, 0.03316734550277813, 0.00710682480887043, 0.05889009992220999]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[0.007513645281773033, 0.006997011647463945, 0.3322113242586889, 0.008484616944931545, 0.3322113242585527, 0.009529880376290763, 0.006940152716294084, 0.004981719299546762, 0.5787336453989526, 0.006037627524314268, 0.5615499329642165, 0.0033746267050419523, 0.007243236727928295, 0.3322113242587421, 0.00814485540173082, 0.3322113242581051, 0.008173725061373227, 0.3322113242598529, 0.003810344094411027]</t>
+          <t>[0.01136107483376967, 0.02114478227868652, 0.011908817571614423, 0.10989830273448413, 0.0037476286734035467, 0.9271189593515704, 0.017221131700516538, 0.0022479801907001507, 0.006835725876876535, 0.0272887154170166, 0.015016193125965503, 0.07131238389094392, 0.007639960831110279, 0.03507291854684971, 0.002302924440782549, 0.0014723608522597329, 0.016446402795403384, 0.01947159274394335, 0.06807728527868344]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[0.0032634886905361514, 0.0031916985394206433, 0.046978689956085375, 0.140611148310478, 0.046978689956022314, 0.0035449721974932366, 0.003184059111854654, 0.0007043947727241649, 0.0029237435930747047, 0.0030580982657840263, 0.003131559688878614, 0.000477218022082347, 0.0032258360227046365, 0.0469786899559736, 0.003351909260807449, 0.0469786899561987, 0.1406075183210045, 0.04697868995606003, 0.002747307149579818]</t>
+          <t>[0.002064117971672186, 0.0140070214118948, 0.02084527857792728, 0.0017832399010000285, 0.32623368623185195, 0.003908490690974969, 0.007355110499022835, 0.040281802052317565, 0.006038065429293069, 0.05244553940599201, 0.032251042836037365, 0.00551750210227551, 0.021797639246020302, 0.004584901520398167, 0.028172838574823972, 0.20791147683545838, 0.0015381786658545534, 0.0026590181656273508, 0.0022816374400081293]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[0.00511587012070704, 0.005095353147300719, 0.014135365397983699, 0.0051522451105002216, 0.014135365397986144, 0.005191945415423953, 0.005093279130638292, 0.00021197902225784801, 0.0050228169778801825, 0.0050582943604921245, 0.00507832296929698, 0.00014360494399486421, 0.005104247662656852, 0.01413536539798419, 0.005138481191918388, 0.014135365398000874, 0.005140402682728926, 0.014135365397996692, 0.004973776609947431]</t>
+          <t>[0.012023051800584734, 0.11116307595969584, 0.03547178695900564, 0.018257255377925437, 0.10746663174087674, 0.04708782107319847, 0.1783410193849694, 0.0667566338139595, 0.014887675242673171, 0.042114665263029004, 0.04037010480941963, 0.03192471214309696, 0.7884806728208681, 0.006124723022141259, 0.028075666004770638, 0.01763404744868685, 0.0818176516251153, 0.025304200355598577, 0.009466103544474642]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[0.16121889666423692, 0.16058931036976296, 0.44547869187317857, 0.162391550474815, 0.44547869187325556, 0.16362679559230708, 0.16051731313243595, 0.006680558630663143, 0.1582805743372821, 0.15940305798202814, 0.1600620077590955, 0.0045257367379963635, 0.16086794703401483, 0.4454786918731938, 0.16193483664204278, 0.44547869187371975, 0.1620183392275512, 0.4454786918735881, 0.15673609550815787]</t>
+          <t>[0.03316759205128088, 0.07208959997010408, 0.05743685700723094, 0.008304772360794403, 0.061313583041957075, 0.04827309796088046, 0.7407189794873723, 0.0158648544706944, 0.054440798873073355, 0.08366415399336159, 0.02007129529013968, 0.14838446868371874, 0.014499570288254124, 0.017347634658027893, 0.01937303293704169, 0.0061606183749621565, 0.09996741367183021, 0.057585435321981744, 0.01408825874564413]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[0.0029402939421863767, 0.0029292641766867095, 0.008126117198840384, 0.002961924668122311, 0.008126117198841789, 0.00298483186112287, 0.0029281109656458903, 0.00012186217528709813, 0.0028870848850072015, 0.0029082458565724383, 0.002919928861414181, 8.255539022212139e-05, 0.002934477893416132, 0.008126117198840663, 0.002954243905511339, 0.008126117198850256, 0.0029551167141773685, 0.008126117198847855, 0.002859041224177698]</t>
+          <t>[0.8310469330470472, 0.10744629000648545, 0.04930943355249123, 0.014705692899236235, 0.014432582027052433, 0.011400861757181122, 0.025859116036320216, 0.004177895663116122, 0.002258461145398896, 0.043483237041019425, 0.038216909485264815, 0.021603685482423415, 0.017679538059110014, 0.0072334378241285, 0.006129282188416857, 0.00483651024196524, 0.05358669957141641, 0.03185571793381141, 0.00880838657898101]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[0.0094724330593994, 0.009007731116135146, 0.2997769133172433, 0.010347274745346153, 0.29977691331702444, 0.011287772658046105, 0.0089568600414164, 0.004495875571868628, 0.007274994802075215, 0.9996847956542624, 0.00861932108172652, 0.0030457841374674417, 0.009228824984118818, 0.2997769133174602, 0.01004086539815196, 0.2997769133195812, 0.010067415999397717, 0.29977691331820266, 0.006139419686914289]</t>
+          <t>[0.002598638740040072, 0.0019063980703885948, 0.01142984228116277, 0.021040226694960085, 0.01711802103675895, 0.015909905693510324, 0.02059373888304765, 0.004268945667981106, 0.4130275082057823, 0.03725311636616439, 0.08349097526694603, 0.022416599173032493, 0.017286174230627702, 0.023183159372288722, 0.019602315201946913, 0.12005125873160806, 0.01080986303113546, 0.0015911587882897656, 0.05487163808347463]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[0.008159821239712345, 0.007751304839121633, 0.2630187674175712, 0.008927128779799353, 0.2630187674211521, 0.009752213562250086, 0.007706831103864269, 0.003944602779018641, 0.0062311610019018405, 0.006993731089647637, 0.007410716445883734, 0.0026724480433912706, 0.007945562580933898, 0.26301876742051733, 0.8783933537326755, 0.26301876741960156, 0.00868164325462258, 0.26301876742031544, 0.005234926700740722]</t>
+          <t>[0.012726113435283869, 0.11118039524429435, 0.013743169065250974, 0.007521084188963847, 0.8470473336241856, 0.02162509443530841, 0.045069781883918955, 0.10215757769250385, 0.005459146189992183, 0.005496976457266961, 0.0143157036087695, 0.0294600240899115, 0.020062144448342447, 0.003648563786000695, 0.006183236717016246, 0.013059638704925488, 0.03755027556059973, 0.009630972771000987, 0.015549767035079183]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[0.003371327888011117, 0.003358757756568402, 0.009317095277196069, 0.0033960230834983738, 0.00931709527719768, 0.0034223505676902587, 0.0033573166937452023, 0.0001397225108891693, 0.00331012686996074, 0.003334331131083026, 0.0033476736400354307, 9.465485400235757e-05, 0.0033645145074622795, 0.009317095277196392, 0.0033871855774573515, 0.009317095277207392, 0.003388217341942366, 0.009317095277204637, 0.0032782777291452663]</t>
+          <t>[0.03787901020660763, 0.010767080290316942, 0.0011452765325229897, 0.020798145765225994, 0.0015440240654795705, 0.01327941355393263, 0.0024341106986920575, 0.0048142751708510545, 0.7911339990554394, 0.006317251488305751, 0.002717826515216744, 0.01456276860577495, 0.030778771388508444, 0.0024586257026756844, 0.005568935089998599, 0.06017484724940053, 0.0021755240752165013, 0.014238846941013586, 0.0018925465353101135]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[0.27559364771255723, 0.008787678005133389, 0.3904792298943498, 0.6895465659264027, 0.3904792298938672, 0.011764326142545398, 0.008721479163506516, 0.0058554060607108995, 0.006525863379367371, 0.007661010391920557, 0.008280941972587353, 0.003966859993619059, 0.38234471163437506, 0.39047922989328704, 0.010137078532994588, 0.39047922989475764, 0.6893777536352014, 0.39047922989423167, 0.005043953230856722]</t>
+          <t>[0.006850684289603129, 0.010649457013660968, 0.006733853100591114, 0.010235994376409489, 0.03464757891419893, 0.009633795239481633, 0.0031394501427985185, 0.006743958393427583, 0.11866351859198768, 0.022496224597868084, 0.485156666768769, 0.03913756074844932, 0.008499847230006326, 0.011150330748058197, 0.14780379772221386, 0.032621560981280114, 0.003782623809229981, 0.05621534977550172, 0.13196378818543475]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[0.00443958909576616, 0.004422833083503913, 0.012268019879250289, 0.004472394922183058, 0.012268019879252412, 0.00450615602793708, 0.00442052422130306, 0.0001839756370554856, 0.004358629394171912, 0.004390290819050704, 0.004407653260314301, 0.00012463408342091545, 0.004429804566484365, 0.012268019879250712, 0.004459698349830607, 0.012268019879265195, 0.004462117159457733, 0.012268019879261564, 0.0043160386844740845]</t>
+          <t>[0.029257885204827524, 0.067688273642292, 0.08740093180395321, 0.0873921216014755, 0.032150467470888906, 0.03754878659211446, 0.2760914695520146, 0.021838745829390077, 0.0371682756742949, 0.07773472516990775, 0.25174861126699677, 0.04725565134132361, 0.014922131386728536, 0.019167189295028222, 0.15015044400450875, 0.04508651708076595, 0.04172137745647459, 0.018274993554269033, 0.0803853664056387]</t>
         </is>
       </c>
     </row>
